--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.972696458369</v>
+        <v>128.7874589902475</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.8917861290315</v>
+        <v>176.2126830920757</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.4452718037785</v>
+        <v>159.3951919338712</v>
       </c>
       <c r="AD2" t="n">
-        <v>102972.696458369</v>
+        <v>128787.4589902475</v>
       </c>
       <c r="AE2" t="n">
-        <v>140891.7861290315</v>
+        <v>176212.6830920757</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.256545442423822e-06</v>
+        <v>9.019838920284682e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.858333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>127445.2718037785</v>
+        <v>159395.1919338712</v>
       </c>
     </row>
     <row r="3">
@@ -2233,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.68200673623447</v>
+        <v>64.86340147262962</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.24062519816836</v>
+        <v>88.74896746613193</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.01415149506161</v>
+        <v>80.27889057114383</v>
       </c>
       <c r="AD3" t="n">
-        <v>47682.00673623447</v>
+        <v>64863.40147262962</v>
       </c>
       <c r="AE3" t="n">
-        <v>65240.62519816836</v>
+        <v>88748.96746613193</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.075474588012513e-05</v>
+        <v>1.550473441934169e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.825</v>
       </c>
       <c r="AH3" t="n">
-        <v>59014.15149506161</v>
+        <v>80278.89057114383</v>
       </c>
     </row>
     <row r="4">
@@ -2339,28 +2339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>41.82739610601662</v>
+        <v>50.37551255548284</v>
       </c>
       <c r="AB4" t="n">
-        <v>57.23008864655365</v>
+        <v>68.92599868915232</v>
       </c>
       <c r="AC4" t="n">
-        <v>51.76812930917372</v>
+        <v>62.34779811252142</v>
       </c>
       <c r="AD4" t="n">
-        <v>41827.39610601662</v>
+        <v>50375.51255548283</v>
       </c>
       <c r="AE4" t="n">
-        <v>57230.08864655365</v>
+        <v>68925.99868915233</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.252198983492547e-05</v>
+        <v>1.805250714022048e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.427083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>51768.12930917372</v>
+        <v>62347.79811252141</v>
       </c>
     </row>
     <row r="5">
@@ -2445,28 +2445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>40.11782194515094</v>
+        <v>48.66593839461689</v>
       </c>
       <c r="AB5" t="n">
-        <v>54.89097385857954</v>
+        <v>66.58688390116771</v>
       </c>
       <c r="AC5" t="n">
-        <v>49.65225635358868</v>
+        <v>60.23192515693308</v>
       </c>
       <c r="AD5" t="n">
-        <v>40117.82194515094</v>
+        <v>48665.9383946169</v>
       </c>
       <c r="AE5" t="n">
-        <v>54890.97385857954</v>
+        <v>66586.8839011677</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.303156414020181e-05</v>
+        <v>1.87871422825376e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.33125</v>
       </c>
       <c r="AH5" t="n">
-        <v>49652.25635358867</v>
+        <v>60231.92515693308</v>
       </c>
     </row>
     <row r="6">
@@ -2551,28 +2551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>40.08065174267738</v>
+        <v>48.62876819214333</v>
       </c>
       <c r="AB6" t="n">
-        <v>54.84011594772185</v>
+        <v>66.53602599030978</v>
       </c>
       <c r="AC6" t="n">
-        <v>49.60625225036356</v>
+        <v>60.18592105370789</v>
       </c>
       <c r="AD6" t="n">
-        <v>40080.65174267737</v>
+        <v>48628.76819214332</v>
       </c>
       <c r="AE6" t="n">
-        <v>54840.11594772185</v>
+        <v>66536.02599030978</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.305971983471035e-05</v>
+        <v>1.882773334536818e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.327083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>49606.25225036356</v>
+        <v>60185.92105370789</v>
       </c>
     </row>
   </sheetData>
@@ -2848,28 +2848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.55135483560534</v>
+        <v>86.38620194561116</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.16323207525801</v>
+        <v>118.1974125921937</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.08098676845385</v>
+        <v>106.9168174255359</v>
       </c>
       <c r="AD2" t="n">
-        <v>69551.35483560534</v>
+        <v>86386.20194561116</v>
       </c>
       <c r="AE2" t="n">
-        <v>95163.23207525801</v>
+        <v>118197.4125921937</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.159241058331202e-06</v>
+        <v>1.19448219672921e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.854166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>86080.98676845385</v>
+        <v>106916.8174255359</v>
       </c>
     </row>
     <row r="3">
@@ -2954,28 +2954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.4533166852151</v>
+        <v>50.95608109478964</v>
       </c>
       <c r="AB3" t="n">
-        <v>58.08650079684231</v>
+        <v>69.72035817750778</v>
       </c>
       <c r="AC3" t="n">
-        <v>52.54280668571917</v>
+        <v>63.06634504619903</v>
       </c>
       <c r="AD3" t="n">
-        <v>42453.3166852151</v>
+        <v>50956.08109478964</v>
       </c>
       <c r="AE3" t="n">
-        <v>58086.50079684231</v>
+        <v>69720.35817750778</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.20163368313605e-05</v>
+        <v>1.759146507910291e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.616666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>52542.80668571917</v>
+        <v>63066.34504619903</v>
       </c>
     </row>
     <row r="4">
@@ -3060,28 +3060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>38.33925761395191</v>
+        <v>46.67142982293713</v>
       </c>
       <c r="AB4" t="n">
-        <v>52.45746367592427</v>
+        <v>63.85790928188874</v>
       </c>
       <c r="AC4" t="n">
-        <v>47.45099696730578</v>
+        <v>57.76340004517731</v>
       </c>
       <c r="AD4" t="n">
-        <v>38339.25761395191</v>
+        <v>46671.42982293713</v>
       </c>
       <c r="AE4" t="n">
-        <v>52457.46367592427</v>
+        <v>63857.90928188874</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.351251209913624e-05</v>
+        <v>1.978180938657972e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.327083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>47450.99696730579</v>
+        <v>57763.4000451773</v>
       </c>
     </row>
     <row r="5">
@@ -3166,28 +3166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>38.32490794580181</v>
+        <v>46.65708015478702</v>
       </c>
       <c r="AB5" t="n">
-        <v>52.43782982689872</v>
+        <v>63.83827543286311</v>
       </c>
       <c r="AC5" t="n">
-        <v>47.4332369452749</v>
+        <v>57.74564002314638</v>
       </c>
       <c r="AD5" t="n">
-        <v>38324.90794580181</v>
+        <v>46657.08015478702</v>
       </c>
       <c r="AE5" t="n">
-        <v>52437.82982689872</v>
+        <v>63838.27543286311</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.352262343088336e-05</v>
+        <v>1.97966119958798e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.325</v>
       </c>
       <c r="AH5" t="n">
-        <v>47433.2369452749</v>
+        <v>57745.64002314638</v>
       </c>
     </row>
   </sheetData>
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.11108405877997</v>
+        <v>41.79312144699793</v>
       </c>
       <c r="AB2" t="n">
-        <v>46.67229008391366</v>
+        <v>57.18319254599329</v>
       </c>
       <c r="AC2" t="n">
-        <v>42.21795222335732</v>
+        <v>51.7257089066316</v>
       </c>
       <c r="AD2" t="n">
-        <v>34111.08405877997</v>
+        <v>41793.12144699793</v>
       </c>
       <c r="AE2" t="n">
-        <v>46672.29008391366</v>
+        <v>57183.19254599328</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.432541721685766e-05</v>
+        <v>2.216318866248556e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="AH2" t="n">
-        <v>42217.95222335732</v>
+        <v>51725.7089066316</v>
       </c>
     </row>
     <row r="3">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>33.97137358002047</v>
+        <v>41.65341096823843</v>
       </c>
       <c r="AB3" t="n">
-        <v>46.48113204328451</v>
+        <v>56.99203450536414</v>
       </c>
       <c r="AC3" t="n">
-        <v>42.04503803783326</v>
+        <v>51.55279472110755</v>
       </c>
       <c r="AD3" t="n">
-        <v>33971.37358002047</v>
+        <v>41653.41096823843</v>
       </c>
       <c r="AE3" t="n">
-        <v>46481.13204328451</v>
+        <v>56992.03450536414</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.447141967050669e-05</v>
+        <v>2.238907247978907e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.425</v>
       </c>
       <c r="AH3" t="n">
-        <v>42045.03803783326</v>
+        <v>51552.79472110754</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.71111221591273</v>
+        <v>56.6687023848333</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.70273978115137</v>
+        <v>77.53661864960603</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.38654847583329</v>
+        <v>70.1366325890332</v>
       </c>
       <c r="AD2" t="n">
-        <v>40711.11221591273</v>
+        <v>56668.7023848333</v>
       </c>
       <c r="AE2" t="n">
-        <v>55702.73978115137</v>
+        <v>77536.61864960603</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.190145118379402e-05</v>
+        <v>1.798659138974421e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.820833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>50386.54847583329</v>
+        <v>70136.63258903319</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>35.58598403393007</v>
+        <v>43.52219819965642</v>
       </c>
       <c r="AB3" t="n">
-        <v>48.69031329789892</v>
+        <v>59.54899164062451</v>
       </c>
       <c r="AC3" t="n">
-        <v>44.04337813411919</v>
+        <v>53.86571945599008</v>
       </c>
       <c r="AD3" t="n">
-        <v>35585.98403393007</v>
+        <v>43522.19819965642</v>
       </c>
       <c r="AE3" t="n">
-        <v>48690.31329789892</v>
+        <v>59548.99164062452</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.415898127433217e-05</v>
+        <v>2.139838299914503e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.370833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>44043.37813411919</v>
+        <v>53865.71945599008</v>
       </c>
     </row>
   </sheetData>
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>33.52588612498501</v>
+        <v>41.17003861669649</v>
       </c>
       <c r="AB2" t="n">
-        <v>45.87159645378852</v>
+        <v>56.33066312910455</v>
       </c>
       <c r="AC2" t="n">
-        <v>41.49367566950838</v>
+        <v>50.95454370075565</v>
       </c>
       <c r="AD2" t="n">
-        <v>33525.88612498502</v>
+        <v>41170.03861669649</v>
       </c>
       <c r="AE2" t="n">
-        <v>45871.59645378852</v>
+        <v>56330.66312910455</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.387826412238044e-05</v>
+        <v>2.193442977222392e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>41493.67566950837</v>
+        <v>50954.54370075565</v>
       </c>
     </row>
   </sheetData>
@@ -4566,28 +4566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.93071271049143</v>
+        <v>99.79382666935129</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.4694597752793</v>
+        <v>136.5423162418624</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.6400937897428</v>
+        <v>123.51090921812</v>
       </c>
       <c r="AD2" t="n">
-        <v>82930.71271049144</v>
+        <v>99793.82666935129</v>
       </c>
       <c r="AE2" t="n">
-        <v>113469.4597752793</v>
+        <v>136542.3162418624</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.664637402175376e-06</v>
+        <v>1.11741697780866e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.064583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>102640.0937897429</v>
+        <v>123510.9092181201</v>
       </c>
     </row>
     <row r="3">
@@ -4672,28 +4672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.43378311716901</v>
+        <v>61.29680756747782</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.79626234105286</v>
+        <v>83.8689963380876</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.99395239132535</v>
+        <v>75.864657038476</v>
       </c>
       <c r="AD3" t="n">
-        <v>44433.783117169</v>
+        <v>61296.80756747782</v>
       </c>
       <c r="AE3" t="n">
-        <v>60796.26234105286</v>
+        <v>83868.9963380876</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.147706465824103e-05</v>
+        <v>1.67322552021657e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.714583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>54993.95239132535</v>
+        <v>75864.657038476</v>
       </c>
     </row>
     <row r="4">
@@ -4778,28 +4778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>39.45200160842928</v>
+        <v>47.84093291485198</v>
       </c>
       <c r="AB4" t="n">
-        <v>53.97996909996124</v>
+        <v>65.45807500708086</v>
       </c>
       <c r="AC4" t="n">
-        <v>48.82819661052698</v>
+        <v>59.21084819940431</v>
       </c>
       <c r="AD4" t="n">
-        <v>39452.00160842929</v>
+        <v>47840.93291485198</v>
       </c>
       <c r="AE4" t="n">
-        <v>53979.96909996124</v>
+        <v>65458.07500708087</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.3127007676911e-05</v>
+        <v>1.913768450656493e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.372916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>48828.19661052698</v>
+        <v>59210.84819940431</v>
       </c>
     </row>
     <row r="5">
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>38.70582886023663</v>
+        <v>47.09476016665919</v>
       </c>
       <c r="AB5" t="n">
-        <v>52.95902262707062</v>
+        <v>64.43712853418567</v>
       </c>
       <c r="AC5" t="n">
-        <v>47.90468783609864</v>
+        <v>58.28733942497453</v>
       </c>
       <c r="AD5" t="n">
-        <v>38705.82886023663</v>
+        <v>47094.76016665919</v>
       </c>
       <c r="AE5" t="n">
-        <v>52959.02262707062</v>
+        <v>64437.12853418567</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.34014497943203e-05</v>
+        <v>1.953778990663496e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.325</v>
       </c>
       <c r="AH5" t="n">
-        <v>47904.68783609864</v>
+        <v>58287.33942497453</v>
       </c>
     </row>
   </sheetData>
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>33.43747258965127</v>
+        <v>48.22285569716915</v>
       </c>
       <c r="AB2" t="n">
-        <v>45.75062515421558</v>
+        <v>65.98063860709097</v>
       </c>
       <c r="AC2" t="n">
-        <v>41.38424970098204</v>
+        <v>59.68353906285223</v>
       </c>
       <c r="AD2" t="n">
-        <v>33437.47258965127</v>
+        <v>48222.85569716915</v>
       </c>
       <c r="AE2" t="n">
-        <v>45750.62515421558</v>
+        <v>65980.63860709096</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.336886460832604e-05</v>
+        <v>2.142006141779194e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.789583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>41384.24970098204</v>
+        <v>59683.53906285223</v>
       </c>
     </row>
   </sheetData>
@@ -5478,28 +5478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.65138729355313</v>
+        <v>65.88468962407696</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.88117149471428</v>
+        <v>90.14633897099483</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.35286319769649</v>
+        <v>81.54289890080628</v>
       </c>
       <c r="AD2" t="n">
-        <v>57651.38729355313</v>
+        <v>65884.68962407696</v>
       </c>
       <c r="AE2" t="n">
-        <v>78881.17149471428</v>
+        <v>90146.33897099484</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.860841081529712e-06</v>
+        <v>1.464180279788422e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.285416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>71352.8631976965</v>
+        <v>81542.89890080628</v>
       </c>
     </row>
     <row r="3">
@@ -5584,28 +5584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>37.42374153278374</v>
+        <v>45.57170300873868</v>
       </c>
       <c r="AB3" t="n">
-        <v>51.2048141839571</v>
+        <v>62.35321453818027</v>
       </c>
       <c r="AC3" t="n">
-        <v>46.31789858474363</v>
+        <v>56.40231125595556</v>
       </c>
       <c r="AD3" t="n">
-        <v>37423.74153278374</v>
+        <v>45571.70300873868</v>
       </c>
       <c r="AE3" t="n">
-        <v>51204.8141839571</v>
+        <v>62353.21453818027</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.366147400208587e-05</v>
+        <v>2.028514673475836e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.370833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>46317.89858474363</v>
+        <v>56402.31125595556</v>
       </c>
     </row>
     <row r="4">
@@ -5690,28 +5690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>36.97379337940277</v>
+        <v>45.12175485535765</v>
       </c>
       <c r="AB4" t="n">
-        <v>50.58917527019268</v>
+        <v>61.73757562441309</v>
       </c>
       <c r="AC4" t="n">
-        <v>45.76101538485241</v>
+        <v>55.84542805606348</v>
       </c>
       <c r="AD4" t="n">
-        <v>36973.79337940277</v>
+        <v>45121.75485535765</v>
       </c>
       <c r="AE4" t="n">
-        <v>50589.17527019267</v>
+        <v>61737.57562441309</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.38685861834949e-05</v>
+        <v>2.05926758483662e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.335416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>45761.01538485241</v>
+        <v>55845.42805606347</v>
       </c>
     </row>
   </sheetData>
@@ -5987,28 +5987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.48220201940411</v>
+        <v>82.1992142626973</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.59563767378181</v>
+        <v>112.4685913275739</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.04475576248494</v>
+        <v>101.7347468219585</v>
       </c>
       <c r="AD2" t="n">
-        <v>65482.20201940411</v>
+        <v>82199.21426269729</v>
       </c>
       <c r="AE2" t="n">
-        <v>89595.63767378181</v>
+        <v>112468.5913275739</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.648996851924045e-06</v>
+        <v>1.271785237303501e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.66875</v>
       </c>
       <c r="AH2" t="n">
-        <v>81044.75576248494</v>
+        <v>101734.7468219585</v>
       </c>
     </row>
     <row r="3">
@@ -6093,28 +6093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.67328974097369</v>
+        <v>49.11713671719514</v>
       </c>
       <c r="AB3" t="n">
-        <v>55.65098940233019</v>
+        <v>67.20423335158408</v>
       </c>
       <c r="AC3" t="n">
-        <v>50.33973708053453</v>
+        <v>60.7903556422573</v>
       </c>
       <c r="AD3" t="n">
-        <v>40673.28974097369</v>
+        <v>49117.13671719514</v>
       </c>
       <c r="AE3" t="n">
-        <v>55650.98940233019</v>
+        <v>67204.23335158407</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.256024900847309e-05</v>
+        <v>1.84691236906607e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.527083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>50339.73708053453</v>
+        <v>60790.3556422573</v>
       </c>
     </row>
     <row r="4">
@@ -6199,28 +6199,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>37.81668051925364</v>
+        <v>46.08993529488244</v>
       </c>
       <c r="AB4" t="n">
-        <v>51.74245064048723</v>
+        <v>63.0622828148767</v>
       </c>
       <c r="AC4" t="n">
-        <v>46.80422377244163</v>
+        <v>57.04370705150787</v>
       </c>
       <c r="AD4" t="n">
-        <v>37816.68051925363</v>
+        <v>46089.93529488244</v>
       </c>
       <c r="AE4" t="n">
-        <v>51742.45064048724</v>
+        <v>63062.2828148767</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.364725808949118e-05</v>
+        <v>2.006750801860286e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.325</v>
       </c>
       <c r="AH4" t="n">
-        <v>46804.22377244163</v>
+        <v>57043.70705150787</v>
       </c>
     </row>
   </sheetData>
@@ -6496,28 +6496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.08978387611295</v>
+        <v>112.3391151473427</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.1060373644355</v>
+        <v>153.7073333965081</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.6888997633786</v>
+        <v>139.0377212267848</v>
       </c>
       <c r="AD2" t="n">
-        <v>95089.78387611295</v>
+        <v>112339.1151473427</v>
       </c>
       <c r="AE2" t="n">
-        <v>130106.0373644355</v>
+        <v>153707.3333965081</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.720066870697298e-06</v>
+        <v>9.722407991478129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.558333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>117688.8997633786</v>
+        <v>139037.7212267847</v>
       </c>
     </row>
     <row r="3">
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.42369720907238</v>
+        <v>64.50234677115888</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.88719470729329</v>
+        <v>88.25495649497068</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.69445191419275</v>
+        <v>79.8320273137213</v>
       </c>
       <c r="AD3" t="n">
-        <v>47423.69720907238</v>
+        <v>64502.34677115889</v>
       </c>
       <c r="AE3" t="n">
-        <v>64887.19470729329</v>
+        <v>88254.95649497068</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.078131124880006e-05</v>
+        <v>1.559810470056679e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.841666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>58694.45191419274</v>
+        <v>79832.02731372129</v>
       </c>
     </row>
     <row r="4">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>41.03554962198258</v>
+        <v>49.53229348429436</v>
       </c>
       <c r="AB4" t="n">
-        <v>56.14664935330216</v>
+        <v>67.77226915575288</v>
       </c>
       <c r="AC4" t="n">
-        <v>50.78809194145033</v>
+        <v>61.30417890651967</v>
       </c>
       <c r="AD4" t="n">
-        <v>41035.54962198258</v>
+        <v>49532.29348429437</v>
       </c>
       <c r="AE4" t="n">
-        <v>56146.64935330216</v>
+        <v>67772.26915575287</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.272737932396162e-05</v>
+        <v>1.841362248780988e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.40625</v>
       </c>
       <c r="AH4" t="n">
-        <v>50788.09194145033</v>
+        <v>61304.17890651967</v>
       </c>
     </row>
     <row r="5">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>39.54108517632063</v>
+        <v>48.03782903863218</v>
       </c>
       <c r="AB5" t="n">
-        <v>54.10185716763922</v>
+        <v>65.72747697008074</v>
       </c>
       <c r="AC5" t="n">
-        <v>48.93845185209712</v>
+        <v>59.45453881716358</v>
       </c>
       <c r="AD5" t="n">
-        <v>39541.08517632063</v>
+        <v>48037.82903863218</v>
       </c>
       <c r="AE5" t="n">
-        <v>54101.85716763922</v>
+        <v>65727.47697008074</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.319632379212621e-05</v>
+        <v>1.909207845150326e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.320833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>48938.45185209712</v>
+        <v>59454.53881716358</v>
       </c>
     </row>
   </sheetData>
@@ -7111,28 +7111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.35259887983103</v>
+        <v>59.45887649165706</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.31693836904562</v>
+        <v>81.35425795635445</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.65581302296178</v>
+        <v>73.58992175843716</v>
       </c>
       <c r="AD2" t="n">
-        <v>43352.59887983103</v>
+        <v>59458.87649165706</v>
       </c>
       <c r="AE2" t="n">
-        <v>59316.93836904562</v>
+        <v>81354.25795635444</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.117390289585046e-05</v>
+        <v>1.677967805741767e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.966666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>53655.81302296178</v>
+        <v>73589.92175843715</v>
       </c>
     </row>
     <row r="3">
@@ -7217,28 +7217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>36.00542958259171</v>
+        <v>44.01598746977246</v>
       </c>
       <c r="AB3" t="n">
-        <v>49.26421720220659</v>
+        <v>60.22461590444208</v>
       </c>
       <c r="AC3" t="n">
-        <v>44.56250945528064</v>
+        <v>54.47686308831371</v>
       </c>
       <c r="AD3" t="n">
-        <v>36005.42958259171</v>
+        <v>44015.98746977246</v>
       </c>
       <c r="AE3" t="n">
-        <v>49264.21720220659</v>
+        <v>60224.61590444208</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.408231846494324e-05</v>
+        <v>2.114720096874359e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.354166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>44562.50945528064</v>
+        <v>54476.86308831371</v>
       </c>
     </row>
   </sheetData>
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>35.84554531119449</v>
+        <v>43.78907815784894</v>
       </c>
       <c r="AB2" t="n">
-        <v>49.04545648848575</v>
+        <v>59.91414857333612</v>
       </c>
       <c r="AC2" t="n">
-        <v>44.36462695704408</v>
+        <v>54.19602632354479</v>
       </c>
       <c r="AD2" t="n">
-        <v>35845.5453111945</v>
+        <v>43789.07815784894</v>
       </c>
       <c r="AE2" t="n">
-        <v>49045.45648848575</v>
+        <v>59914.14857333612</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.361416489502882e-05</v>
+        <v>2.088068114649019e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.535416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>44364.62695704408</v>
+        <v>54196.02632354479</v>
       </c>
     </row>
     <row r="3">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>34.8552869567347</v>
+        <v>42.62822760279678</v>
       </c>
       <c r="AB3" t="n">
-        <v>47.69054132080509</v>
+        <v>58.32582163080252</v>
       </c>
       <c r="AC3" t="n">
-        <v>43.13902299132745</v>
+        <v>52.75928707517522</v>
       </c>
       <c r="AD3" t="n">
-        <v>34855.2869567347</v>
+        <v>42628.22760279678</v>
       </c>
       <c r="AE3" t="n">
-        <v>47690.54132080509</v>
+        <v>58325.82163080252</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.416533358359986e-05</v>
+        <v>2.172603433067143e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>43139.02299132745</v>
+        <v>52759.28707517521</v>
       </c>
     </row>
   </sheetData>
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.06291454322196</v>
+        <v>41.81651548788368</v>
       </c>
       <c r="AB2" t="n">
-        <v>46.60638242763849</v>
+        <v>57.21520130480526</v>
       </c>
       <c r="AC2" t="n">
-        <v>42.15833470129487</v>
+        <v>51.75466279442724</v>
       </c>
       <c r="AD2" t="n">
-        <v>34062.91454322197</v>
+        <v>41816.51548788368</v>
       </c>
       <c r="AE2" t="n">
-        <v>46606.38242763848</v>
+        <v>57215.20130480526</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.39748863494727e-05</v>
+        <v>2.183548426130933e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.55625</v>
       </c>
       <c r="AH2" t="n">
-        <v>42158.33470129487</v>
+        <v>51754.66279442724</v>
       </c>
     </row>
   </sheetData>
@@ -13243,28 +13243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.75251878803825</v>
+        <v>48.04436445575715</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.75939407986226</v>
+        <v>65.73641901611337</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.43779576779018</v>
+        <v>59.46262744687311</v>
       </c>
       <c r="AD2" t="n">
-        <v>40752.51878803825</v>
+        <v>48044.36445575715</v>
       </c>
       <c r="AE2" t="n">
-        <v>55759.39407986226</v>
+        <v>65736.41901611337</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.256198704411424e-05</v>
+        <v>2.047197047004943e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.052083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>50437.79576779019</v>
+        <v>59462.62744687311</v>
       </c>
     </row>
   </sheetData>
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.29881177702416</v>
+        <v>77.72261085487413</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.87173858600841</v>
+        <v>106.3435050511894</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.86713757010401</v>
+        <v>96.19423018317759</v>
       </c>
       <c r="AD2" t="n">
-        <v>61298.81177702417</v>
+        <v>77722.61085487413</v>
       </c>
       <c r="AE2" t="n">
-        <v>83871.7385860084</v>
+        <v>106343.5050511894</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.246493978159038e-06</v>
+        <v>1.366059271473966e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.466666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>75867.13757010401</v>
+        <v>96194.2301831776</v>
       </c>
     </row>
     <row r="3">
@@ -13646,28 +13646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.97521514298287</v>
+        <v>47.18715943618636</v>
       </c>
       <c r="AB3" t="n">
-        <v>53.32760882360628</v>
+        <v>64.56355329112074</v>
       </c>
       <c r="AC3" t="n">
-        <v>48.238096683352</v>
+        <v>58.40169838054601</v>
       </c>
       <c r="AD3" t="n">
-        <v>38975.21514298287</v>
+        <v>47187.15943618635</v>
       </c>
       <c r="AE3" t="n">
-        <v>53327.60882360628</v>
+        <v>64563.55329112074</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.312570386422509e-05</v>
+        <v>1.939166293808184e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.441666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>48238.096683352</v>
+        <v>58401.69838054601</v>
       </c>
     </row>
     <row r="4">
@@ -13752,28 +13752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>37.03144358786814</v>
+        <v>45.24338788107131</v>
       </c>
       <c r="AB4" t="n">
-        <v>50.66805482876231</v>
+        <v>61.90399929626481</v>
       </c>
       <c r="AC4" t="n">
-        <v>45.83236678906055</v>
+        <v>55.99596848625082</v>
       </c>
       <c r="AD4" t="n">
-        <v>37031.44358786814</v>
+        <v>45243.38788107131</v>
       </c>
       <c r="AE4" t="n">
-        <v>50668.05482876231</v>
+        <v>61903.99929626482</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.396906388110376e-05</v>
+        <v>2.063762683852762e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.295833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>45832.36678906055</v>
+        <v>55995.96848625081</v>
       </c>
     </row>
   </sheetData>
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.85751325325492</v>
+        <v>105.8302275886474</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.5787697498704</v>
+        <v>144.8015862868527</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.9754626018496</v>
+        <v>130.9819261219775</v>
       </c>
       <c r="AD2" t="n">
-        <v>88857.51325325492</v>
+        <v>105830.2275886474</v>
       </c>
       <c r="AE2" t="n">
-        <v>121578.7697498704</v>
+        <v>144801.5862868527</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.16340251751256e-06</v>
+        <v>1.040247118240919e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>109975.4626018496</v>
+        <v>130981.9261219775</v>
       </c>
     </row>
     <row r="3">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.48469406812119</v>
+        <v>63.45731889496263</v>
       </c>
       <c r="AB3" t="n">
-        <v>63.60240918394963</v>
+        <v>86.8251032513836</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.53228451798878</v>
+        <v>78.53863725689007</v>
       </c>
       <c r="AD3" t="n">
-        <v>46484.69406812119</v>
+        <v>63457.31889496263</v>
       </c>
       <c r="AE3" t="n">
-        <v>63602.40918394963</v>
+        <v>86825.1032513836</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.098323145558506e-05</v>
+        <v>1.594950841128039e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>57532.28451798878</v>
+        <v>78538.63725689007</v>
       </c>
     </row>
     <row r="4">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>40.79778985732395</v>
+        <v>49.24152135201317</v>
       </c>
       <c r="AB4" t="n">
-        <v>55.82133595407728</v>
+        <v>67.37442189640483</v>
       </c>
       <c r="AC4" t="n">
-        <v>50.49382599646627</v>
+        <v>60.94430163122153</v>
       </c>
       <c r="AD4" t="n">
-        <v>40797.78985732395</v>
+        <v>49241.52135201317</v>
       </c>
       <c r="AE4" t="n">
-        <v>55821.33595407728</v>
+        <v>67374.42189640482</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.270216930509498e-05</v>
+        <v>1.844569669613032e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.43125</v>
       </c>
       <c r="AH4" t="n">
-        <v>50493.82599646627</v>
+        <v>60944.30163122153</v>
       </c>
     </row>
     <row r="5">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>39.22050583894049</v>
+        <v>47.66423733362944</v>
       </c>
       <c r="AB5" t="n">
-        <v>53.66322637527562</v>
+        <v>65.21631231759346</v>
       </c>
       <c r="AC5" t="n">
-        <v>48.54168336693321</v>
+        <v>58.99215900168543</v>
       </c>
       <c r="AD5" t="n">
-        <v>39220.50583894049</v>
+        <v>47664.23733362944</v>
       </c>
       <c r="AE5" t="n">
-        <v>53663.22637527562</v>
+        <v>65216.31231759346</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.325982696506278e-05</v>
+        <v>1.925550987126364e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.329166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>48541.68336693321</v>
+        <v>58992.15900168543</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.02859130375057</v>
+        <v>55.25991924427589</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.13712867531784</v>
+        <v>75.60905940557059</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.77947990361044</v>
+        <v>68.39303689390145</v>
       </c>
       <c r="AD2" t="n">
-        <v>41028.59130375057</v>
+        <v>55259.91924427589</v>
       </c>
       <c r="AE2" t="n">
-        <v>56137.12867531784</v>
+        <v>75609.05940557059</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.098060904140646e-05</v>
+        <v>1.830402105785951e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.614583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>50779.47990361045</v>
+        <v>68393.03689390146</v>
       </c>
     </row>
   </sheetData>
@@ -14961,28 +14961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.76083087322345</v>
+        <v>45.78871270361363</v>
       </c>
       <c r="AB2" t="n">
-        <v>51.66603469087661</v>
+        <v>62.65013677650007</v>
       </c>
       <c r="AC2" t="n">
-        <v>46.73510085381118</v>
+        <v>56.67089565258319</v>
       </c>
       <c r="AD2" t="n">
-        <v>37760.83087322345</v>
+        <v>45788.71270361363</v>
       </c>
       <c r="AE2" t="n">
-        <v>51666.03469087661</v>
+        <v>62650.13677650007</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.292272529372873e-05</v>
+        <v>1.96671811952181e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.633333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>46735.10085381118</v>
+        <v>56670.89565258319</v>
       </c>
     </row>
     <row r="3">
@@ -15067,28 +15067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>35.28218522419624</v>
+        <v>43.13947485399383</v>
       </c>
       <c r="AB3" t="n">
-        <v>48.27464236376551</v>
+        <v>59.02533267452686</v>
       </c>
       <c r="AC3" t="n">
-        <v>43.66737825054043</v>
+        <v>53.39203776665664</v>
       </c>
       <c r="AD3" t="n">
-        <v>35282.18522419624</v>
+        <v>43139.47485399383</v>
       </c>
       <c r="AE3" t="n">
-        <v>48274.64236376551</v>
+        <v>59025.33267452686</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.415253567076887e-05</v>
+        <v>2.153883775149772e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.404166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>43667.37825054043</v>
+        <v>53392.03776665663</v>
       </c>
     </row>
   </sheetData>
@@ -15364,28 +15364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.7487773482045</v>
+        <v>62.91508800978661</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.9096925133771</v>
+        <v>86.0831990327478</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.76041659633111</v>
+        <v>77.86753933561154</v>
       </c>
       <c r="AD2" t="n">
-        <v>54748.7773482045</v>
+        <v>62915.08800978662</v>
       </c>
       <c r="AE2" t="n">
-        <v>74909.6925133771</v>
+        <v>86083.1990327478</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.042952182495218e-05</v>
+        <v>1.557034466600021e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.139583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>67760.41659633111</v>
+        <v>77867.53933561154</v>
       </c>
     </row>
     <row r="3">
@@ -15470,28 +15470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>36.64357554682193</v>
+        <v>44.72454535383504</v>
       </c>
       <c r="AB3" t="n">
-        <v>50.13735666347515</v>
+        <v>61.19409606078368</v>
       </c>
       <c r="AC3" t="n">
-        <v>45.35231771182727</v>
+        <v>55.35381741920832</v>
       </c>
       <c r="AD3" t="n">
-        <v>36643.57554682193</v>
+        <v>44724.54535383504</v>
       </c>
       <c r="AE3" t="n">
-        <v>50137.35666347515</v>
+        <v>61194.09606078368</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.388417515134621e-05</v>
+        <v>2.072783356111029e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.358333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>45352.31771182727</v>
+        <v>55353.81741920832</v>
       </c>
     </row>
     <row r="4">
@@ -15576,28 +15576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>36.64056163307652</v>
+        <v>44.72153144008963</v>
       </c>
       <c r="AB4" t="n">
-        <v>50.13323289372423</v>
+        <v>61.18997229103272</v>
       </c>
       <c r="AC4" t="n">
-        <v>45.34858750887361</v>
+        <v>55.35008721625465</v>
       </c>
       <c r="AD4" t="n">
-        <v>36640.56163307653</v>
+        <v>44721.53144008963</v>
       </c>
       <c r="AE4" t="n">
-        <v>50133.23289372423</v>
+        <v>61189.97229103273</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.391970747063648e-05</v>
+        <v>2.078088014056211e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.354166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>45348.58750887361</v>
+        <v>55350.08721625465</v>
       </c>
     </row>
   </sheetData>
